--- a/Assignment_4/typeinfer.xlsx
+++ b/Assignment_4/typeinfer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzvig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tzvigr\PPL\PPL\Assignment_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4570D2C6-818F-4B5B-85D1-E06F2E975467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893E26C-EF4C-42EB-B6F0-E57B6FF0BAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEB05B2E-0BEC-40F4-89C6-7D95079D3E82}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FEB05B2E-0BEC-40F4-89C6-7D95079D3E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t xml:space="preserve">((lambda (f x1) (f 1 x1)) + #t) </t>
   </si>
@@ -130,9 +130,6 @@
     <t>(T1 = [Tf * Tnum1 * Tx --&gt;]) ○ Substitution = ([T+ * T#t --&gt; T0] = [Tf * Tx --&gt; T2])</t>
   </si>
   <si>
-    <t>T+ = Tf</t>
-  </si>
-  <si>
     <t>Tx = T#t</t>
   </si>
   <si>
@@ -160,20 +157,53 @@
     <t>(T#t = Boolean ) ○ Substitution = Substitution ○ (T#t = Boolean )</t>
   </si>
   <si>
-    <t>{ T1 := [ [Number * Number --&gt; Number] * Boolean --&gt; T0], Tf := [Number * Tx --&gt; T2], T#t = Boolean }</t>
-  </si>
-  <si>
     <t>{ T1 := [T+ * T#t --&gt; T0], Tf := [Number * Tx --&gt; T2], Tnum1 = Number }</t>
   </si>
   <si>
-    <t>{ T1 := [ [Number * Number --&gt; Number] * T#t --&gt; T0], Tf := [Number * Tx --&gt; T2], Tnum1 = Number }</t>
+    <t>Tf = T+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Tf = T+)  ○ Substitution = Substitution ○  (Tf = T+) </t>
+  </si>
+  <si>
+    <t>{ T1 := [ [Number * Number --&gt; Number] * T#t --&gt; T0], Tf := [Number * Tx --&gt; T2], Tnum1 = Number , T+ = [Number * Number -&gt; Number]}</t>
+  </si>
+  <si>
+    <t>{ T1 := [ [Number * Number --&gt; Number] * Boolean --&gt; T0], Tf := [Number * Tx --&gt; T2],T+ = [Number * Number -&gt; Number] , T#t = Boolean }</t>
+  </si>
+  <si>
+    <t>Tx = Number</t>
+  </si>
+  <si>
+    <t>T2 = Number</t>
+  </si>
+  <si>
+    <t>{ T1 := [ [Number * Number --&gt; Number] * Boolean --&gt; T0], Tf := [Number * Tx --&gt; T2],T+ = [Number * Number -&gt; Number], T#t = Boolean }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(T2 = T0) ○ Substitution = Substitution ○  (T2 = T0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Tx = T#t) ○ Substitution = Substitution ○  (Tx = T#t) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Tx = Number) ○ Substitution = Substitution ○  (Tx = Number) </t>
+  </si>
+  <si>
+    <t>{ T1 := [ [Number * Number --&gt; Number] * Boolean --&gt; T0], Tf := [Number * T#t --&gt; T2],T+ = [Number * Number -&gt; Number], T#t = Boolean, Tx =T#t }</t>
+  </si>
+  <si>
+    <t>{ T1 := [ [Number * Number --&gt; Number] * Boolean --&gt; T0], Tf := [Number * T#t --&gt; T0],T+ = [Number * Number -&gt; Number], T#t = Boolean, Tx = T#t}</t>
+  </si>
+  <si>
+    <t>now we got Tx= Boolean and Tx = Number so we can say that the expression is not well-typed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,30 +212,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -228,37 +279,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,623 +650,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FBF9C7-7C74-4CA2-924A-A7FFF0C8F126}">
-  <dimension ref="A2:D86"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="210.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="5">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="3" t="s">
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="5">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>2</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>3</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>6</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="8" t="s">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="3" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>3</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>5</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>6</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="5"/>
-      <c r="C45" s="3" t="s">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>9</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
-        <v>3</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
         <v>5</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
+      <c r="C67" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>6</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>7</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="B69" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B73" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>6</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>7</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
         <v>8</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="B78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>9</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>7</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
         <v>9</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="5"/>
-      <c r="C56" s="3" t="s">
+      <c r="B86" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="5">
-        <v>4</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="5">
-        <v>5</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="5">
-        <v>6</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="5">
-        <v>7</v>
-      </c>
-      <c r="C60" s="5" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="5">
-        <v>8</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="C91" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>9</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="5">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>10</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>11</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
         <v>9</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="5"/>
-      <c r="C66" s="3" t="s">
+      <c r="B99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>10</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>11</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="5">
-        <v>5</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="5">
-        <v>6</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="5">
-        <v>7</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="5">
-        <v>8</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="5">
-        <v>9</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="5"/>
-      <c r="C75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="5">
-        <v>6</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="5">
-        <v>7</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="5">
-        <v>8</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="5">
-        <v>9</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C81" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="5"/>
-      <c r="C83" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="5">
-        <v>7</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="5">
-        <v>8</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="5">
-        <v>9</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="5"/>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>10</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>11</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C64:D64"/>
+  <mergeCells count="14">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B64:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="29" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>